--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -496,16 +496,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -576,16 +576,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -599,13 +599,13 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -792,11 +792,11 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -818,10 +818,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -870,10 +870,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -922,22 +922,22 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -974,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1000,10 +1000,10 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1026,10 +1026,10 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1130,10 +1130,10 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -1142,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">

--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D27CD00C6BEB56E48EECDC17ECEA4577E132C003" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9E9ADD-DECA-4BC8-82B6-6BF6A4B8CF61}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +63,6 @@
   </si>
   <si>
     <t>A.Walter</t>
-  </si>
-  <si>
-    <t>C.Davis</t>
   </si>
   <si>
     <t>E.Moore</t>
@@ -113,8 +116,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +180,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +318,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -508,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -548,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -568,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -588,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -628,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -648,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -668,83 +717,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -754,37 +783,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -810,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -836,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -862,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -888,122 +919,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1012,53 +1043,53 @@
         <v>4</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
       <c r="C12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1070,107 +1101,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D27CD00C6BEB56E48EECDC17ECEA4577E132C003" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9E9ADD-DECA-4BC8-82B6-6BF6A4B8CF61}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +96,9 @@
   </si>
   <si>
     <t>N.Bawden</t>
+  </si>
+  <si>
+    <t>D.Montgomery</t>
   </si>
   <si>
     <t>T.Kroft</t>
@@ -116,8 +113,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,14 +177,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,27 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,24 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,16 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -545,19 +496,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -577,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -597,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -617,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -637,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -645,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -657,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -677,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -685,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -697,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -717,9 +668,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -737,9 +688,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -757,9 +708,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -783,16 +734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -841,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -849,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -861,13 +810,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -893,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -919,21 +868,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -945,35 +894,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -997,18 +946,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1017,21 +966,21 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1049,9 +998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1075,9 +1024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1101,81 +1050,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_D3B0F21D0F2B955D065EC096F3EA4577E132F1DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A833EC7A-050C-4502-9E6A-9AC345368F46}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +67,7 @@
     <t>T.Johnson</t>
   </si>
   <si>
-    <t>Mi.Carter</t>
+    <t>M.Carter</t>
   </si>
   <si>
     <t>L.Perine</t>
@@ -113,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,16 +562,16 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -548,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -568,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -576,19 +639,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -616,19 +679,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -648,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -656,19 +719,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -688,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -696,19 +759,19 @@
         <v>15</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -734,14 +797,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -790,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -816,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -824,25 +889,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -868,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -876,10 +941,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -894,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -902,10 +967,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -914,13 +979,13 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -946,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -954,10 +1019,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -966,13 +1031,13 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -980,13 +1045,13 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -998,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1024,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1050,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1076,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1084,17 +1149,17 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
         <v>1</v>
       </c>
@@ -1102,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1110,16 +1175,16 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1128,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1136,10 +1201,10 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>

--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -1,33 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_D3B0F21D0F2B955D065EC096F3EA4577E132F1DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A833EC7A-050C-4502-9E6A-9AC345368F46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -130,8 +113,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,14 +177,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -248,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,27 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,24 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,16 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -559,19 +496,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -591,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -611,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -631,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -639,19 +576,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -671,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,19 +616,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -711,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -731,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -751,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -759,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -771,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -797,16 +734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -837,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -849,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -881,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -889,10 +824,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -901,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -933,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -959,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -967,10 +902,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -985,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1011,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1019,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1037,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1045,25 +980,25 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1071,7 +1006,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1089,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1115,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1141,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1149,25 +1084,25 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1193,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -50,7 +50,7 @@
     <t>T.Johnson</t>
   </si>
   <si>
-    <t>M.Carter</t>
+    <t>Mi.Carter</t>
   </si>
   <si>
     <t>L.Perine</t>
@@ -59,6 +59,9 @@
     <t>A.Walter</t>
   </si>
   <si>
+    <t>C.Davis</t>
+  </si>
+  <si>
     <t>E.Moore</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t>D.Montgomery</t>
   </si>
   <si>
+    <t>K.Yeboah</t>
+  </si>
+  <si>
     <t>T.Kroft</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
   </si>
   <si>
     <t>T.Wesco</t>
+  </si>
+  <si>
+    <t>D.Brown</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,16 +505,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -596,16 +605,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -616,16 +625,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>21</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -656,16 +665,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -676,16 +685,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -716,15 +725,35 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -735,7 +764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,22 +775,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -798,22 +827,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -824,10 +853,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -873,25 +902,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -902,22 +931,22 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -925,25 +954,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
       <c r="F8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -954,22 +983,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>33</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -977,25 +1006,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1003,22 +1032,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1029,16 +1058,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1058,19 +1087,19 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1084,22 +1113,22 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1110,22 +1139,22 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1136,21 +1165,99 @@
         <v>30</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Jets/Players Data.xlsx
+++ b/Base/Teams/Jets/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>T.Coleman</t>
   </si>
   <si>
-    <t>T.Johnson</t>
+    <t>Ty.Johnson</t>
   </si>
   <si>
     <t>Mi.Carter</t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>K.Yeboah</t>
+  </si>
+  <si>
+    <t>T.Black</t>
   </si>
   <si>
     <t>T.Kroft</t>
@@ -508,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -585,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -605,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -625,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -764,7 +767,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -807,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -827,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -853,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>48</v>
@@ -931,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -957,16 +960,16 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1035,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1061,10 +1064,10 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1165,22 +1168,22 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1191,22 +1194,22 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1217,22 +1220,22 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1243,21 +1246,47 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>
